--- a/dataset/Book1.xlsx
+++ b/dataset/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>prompt</t>
   </si>
@@ -36,13 +36,274 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>بَرُوشو` مَرکَہ ، گِلگِت بَلتِستان مینے دوا؟</t>
+  </si>
+  <si>
+    <t>بروشاسکی ایتاشو سیسے</t>
+  </si>
+  <si>
+    <t>میل گوُشاسکی ایتاشو سیسے</t>
+  </si>
+  <si>
+    <t>مِیئ مِیڈِم اُلے بیروم تینجو بیین؟</t>
+  </si>
+  <si>
+    <t>التو تھا کا چیندو</t>
+  </si>
+  <si>
+    <t>التو تھا کا بشیندو</t>
+  </si>
+  <si>
+    <t>گوسے بُردی اولے بیروم کھیِنٚ؟</t>
+  </si>
+  <si>
+    <t>اسکو</t>
+  </si>
+  <si>
+    <t>والتو</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسقور انے دُخَر ݜَہیلی مَنُمبھی؟</t>
+  </si>
+  <si>
+    <t>ایش اُلے</t>
+  </si>
+  <si>
+    <t>ڎھَغَچِ</t>
+  </si>
+  <si>
+    <t>ساࣷ چھر ایلجِکن باوئیچُمبھی؟</t>
+  </si>
+  <si>
+    <t>اوا</t>
+  </si>
+  <si>
+    <t>بے</t>
+  </si>
+  <si>
+    <t>تے یاٹے ہا یا شَرن کھاݜ ایچُمان؟</t>
+  </si>
+  <si>
+    <t>پھوࣷپوࣷس</t>
+  </si>
+  <si>
+    <t>کدن</t>
+  </si>
+  <si>
+    <t>داغُم کا بایو ڎلَہ نیگئ یارا پھو نِت اشکوا یاٹے غارے ایتن کا؟</t>
+  </si>
+  <si>
+    <t>تیغا غوستہ سِمان</t>
+  </si>
+  <si>
+    <t>سیغا مُول سِمان</t>
+  </si>
+  <si>
+    <t>ایَش بلژ مَیوندوا؟</t>
+  </si>
+  <si>
+    <t>ڈیم اِݜقم</t>
+  </si>
+  <si>
+    <t>ݜِر باردُم</t>
+  </si>
+  <si>
+    <t>موچوغُن گُس مُغا بو سِمان؟</t>
+  </si>
+  <si>
+    <t>داسِن</t>
+  </si>
+  <si>
+    <t>ہلِس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مَلُلے کامن جغَچِ واوے غاشو کا الو بَژوینٚ ایتوکا </t>
+  </si>
+  <si>
+    <t>تِغا شَنی سِمان</t>
+  </si>
+  <si>
+    <t>تِغا ڎھَغَ سِمان</t>
+  </si>
+  <si>
+    <t>جا کا عُن غارے ڎیرانا گرماشا ہُن دِچَ</t>
+  </si>
+  <si>
+    <t>غُلھچمِ گَندِی</t>
+  </si>
+  <si>
+    <t>شِچُمے گَندِی</t>
+  </si>
+  <si>
+    <t>سییسہِ بو یِٹِ یشُمان؟</t>
+  </si>
+  <si>
+    <t>عُمِمو یٹِہ</t>
+  </si>
+  <si>
+    <t>عُلچِمو یاٹِہ</t>
+  </si>
+  <si>
+    <t>تھپ کھُل مَنی کا بو مایوندوعہ؟</t>
+  </si>
+  <si>
+    <t>سَہ دوشُمبِہ</t>
+  </si>
+  <si>
+    <t>سَہ بَوچُمبِہ</t>
+  </si>
+  <si>
+    <t>کاجولی مُیَہ مُہُلِسَہ لَلا بوتہ سِمبو؟</t>
+  </si>
+  <si>
+    <r>
+      <t>کاجولی مُچُم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> نِو بَئی</t>
+    </r>
+  </si>
+  <si>
+    <t>کاجولی مُچُم عِچُغُن بَئی</t>
+  </si>
+  <si>
+    <t>بَرُم ڎِل بالتک ڎِرندُعہ؟</t>
+  </si>
+  <si>
+    <t>گَن گان</t>
+  </si>
+  <si>
+    <t>ڎل شہ گان</t>
+  </si>
+  <si>
+    <t>پِشین سیمان</t>
+  </si>
+  <si>
+    <t>سَہ نُپَو تھپ کِن مَنی کا</t>
+  </si>
+  <si>
+    <t>سَہ ہَول دُسِ کا</t>
+  </si>
+  <si>
+    <t>چِدنا ژیل نَتھِ پھچی پھُویَٹِہ عُسِن کا</t>
+  </si>
+  <si>
+    <t>بَپَچِمی</t>
+  </si>
+  <si>
+    <t>دیرِچمی</t>
+  </si>
+  <si>
+    <t>تھپ مَنِکا ٹانٚ مَیوندُعہ، بُھلتُ مَنِکا؟</t>
+  </si>
+  <si>
+    <t>مَتُم</t>
+  </si>
+  <si>
+    <t>گَری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بَیکِہ اجو بُٹ اچُندُعَہ </t>
+  </si>
+  <si>
+    <t>گَرُمکُݜ</t>
+  </si>
+  <si>
+    <t>چَھغُرمکُݜ</t>
+  </si>
+  <si>
+    <t>ہِک دِن عُلے بیرُم ہِسامُہ مَیومبِین</t>
+  </si>
+  <si>
+    <t>تُرمَلتو</t>
+  </si>
+  <si>
+    <t>تورُم</t>
+  </si>
+  <si>
+    <t>چِھݜک یَٹِہ بو اچُمان؟</t>
+  </si>
+  <si>
+    <t>یارُم شولتہ دوشُمان</t>
+  </si>
+  <si>
+    <t>ایَشہ دوُلچُمان</t>
+  </si>
+  <si>
+    <t>منژ یَٹِہ ہُن دِخَرچُمان، دا کھپُن یَٹِہ</t>
+  </si>
+  <si>
+    <t>پَھلو سُیُمان</t>
+  </si>
+  <si>
+    <t>گرنج کا ڈَوڈَو شِچُمان</t>
+  </si>
+  <si>
+    <t>دَسِن مُنیو مانُکَہ</t>
+  </si>
+  <si>
+    <t>گُس مَیُمبُہ</t>
+  </si>
+  <si>
+    <t>ہِر مَیُمبَئی</t>
+  </si>
+  <si>
+    <t>ہلِس نِو مَنِکَہ</t>
+  </si>
+  <si>
+    <t>بہے ہُک</t>
+  </si>
+  <si>
+    <t>وَل ہُک</t>
+  </si>
+  <si>
+    <t>ہُک ہِر مَنِکا سیغَہ سِمان</t>
+  </si>
+  <si>
+    <t>ہُک گُس مَنِکا سیغَہ سِمان</t>
+  </si>
+  <si>
+    <t>پَقو دستِرچُمے گَندی بُٹ اواجی دُوَہ</t>
+  </si>
+  <si>
+    <t>پھُ</t>
+  </si>
+  <si>
+    <t>ژِل</t>
+  </si>
+  <si>
+    <t>تَھمبُکُس ہِسَہ چہ بو ایچُمان؟</t>
+  </si>
+  <si>
+    <t>تَھمبُکُس ہِسَہ چہ مَلِنٚ کا شَنٚ ہَرِچُمان</t>
+  </si>
+  <si>
+    <t>تَھمبُکُس ہِسَہ چہ مَلِنٚ بِسارچُمان</t>
+  </si>
+  <si>
+    <t>تھپِہ ایَش مَکُچی اسُمیُو بو مَیُمبِین؟</t>
+  </si>
+  <si>
+    <t>اسُمیُو لَپِش دِچُمبِین</t>
+  </si>
+  <si>
+    <t>اسُمیُو چِژ دِچُمبِین</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +315,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +355,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -372,18 +643,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -398,6 +670,412 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Book1.xlsx
+++ b/dataset/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
   <si>
     <t>prompt</t>
   </si>
@@ -298,12 +298,177 @@
   <si>
     <t>اسُمیُو چِژ دِچُمبِین</t>
   </si>
+  <si>
+    <t xml:space="preserve"> غُٹُم دُنِشے گَندِع بو اواجی دوا؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غُٹُم دُنِشے گَندِع اے گندِع بِسکا اعِچُم</t>
+  </si>
+  <si>
+    <t>غُٹُم دُنِشے گَندِع اے گندِع سبق سیم اواجِع دوا</t>
+  </si>
+  <si>
+    <t>مَرُک بو چُم ایچومان؟</t>
+  </si>
+  <si>
+    <t>مَرُک مَمو چُم اعِچُمان</t>
+  </si>
+  <si>
+    <t>مَرُک ژِیل چُم اعِچُمان</t>
+  </si>
+  <si>
+    <t>اَیدِرِم پاقو غَہ بو سیمان</t>
+  </si>
+  <si>
+    <t>اَیدِرِم پاقو غَہ دوغُنُم سِمان</t>
+  </si>
+  <si>
+    <t>اَیدِرِم پاقو غَہ دَغُئی سِمان</t>
+  </si>
+  <si>
+    <t>اجو بُٹ دُوغُنُم میوہ غَہ بو سیمان؟</t>
+  </si>
+  <si>
+    <t>جُرُٹِہ</t>
+  </si>
+  <si>
+    <t>تُتوو میوہ سیمان</t>
+  </si>
+  <si>
+    <t>جا ایا بو چِہ نُکٹ گوغا لین اِتہ</t>
+  </si>
+  <si>
+    <t>تِن چِہ</t>
+  </si>
+  <si>
+    <t>چَھپ چِہ</t>
+  </si>
+  <si>
+    <t>اَکھَبیر گُس مُغِہ بو سِیَنَ؟</t>
+  </si>
+  <si>
+    <t>بَپ</t>
+  </si>
+  <si>
+    <t>وَو</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بُرُم گَٹُنز نُوِل چُٹِکِہ پَھرچِھ اُسَہ کَہ بو گُنِیُو</t>
+  </si>
+  <si>
+    <t>گُس گُوَیُما</t>
+  </si>
+  <si>
+    <t>ہِر گُویُما</t>
+  </si>
+  <si>
+    <t>گِرمِنچُم ہَکِم بُٹ گَران دُوَہ شُوا</t>
+  </si>
+  <si>
+    <t>شِہ</t>
+  </si>
+  <si>
+    <t>گُسکِہ بَلِݜ</t>
+  </si>
+  <si>
+    <t>مِلُلِہ گُر دُغُنِکَہ بو اِچُمَان؟</t>
+  </si>
+  <si>
+    <t>ہَرِچُمان</t>
+  </si>
+  <si>
+    <t>بِسارچُمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سُم بُݜُہ اِسکِہ دنُکُس مَنِکَہ </t>
+  </si>
+  <si>
+    <t>بِیَٹہَر سِمان</t>
+  </si>
+  <si>
+    <t>ژِیَر سِمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژِلم بُݜُہ اِسکِہ دنُکُس مَنِکَہ </t>
+  </si>
+  <si>
+    <t>سَہ جِل مَنی کَہ تِہ غَہ سِمَان</t>
+  </si>
+  <si>
+    <t>دُوغُئی</t>
+  </si>
+  <si>
+    <t>چَھݜٹَکَل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سَہ ہَن </t>
+  </si>
+  <si>
+    <t>اسُمُنَن بِہ</t>
+  </si>
+  <si>
+    <t>څِنَن بِہ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژِل بُٹ چَھغُرُم مَنِکَہ </t>
+  </si>
+  <si>
+    <t>تُھخ تَلیُندُوَہ</t>
+  </si>
+  <si>
+    <t>غَمو تَلیُندُوَہ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژِل بُٹ گَرُم مَنِکَہ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> چَھرِ څُخ یَٹِہ ٹُک دِن ایِدُہُکُم غَمو غا</t>
+  </si>
+  <si>
+    <t>گیِہ سِمان</t>
+  </si>
+  <si>
+    <t>وَل غَمُو سِمان</t>
+  </si>
+  <si>
+    <t>ہُنچِہ نُپَل پھُہ نِمَہ بَتُم پھُکَن دِواسِہ کَہ سِغَہ</t>
+  </si>
+  <si>
+    <t>پھتِنٚ سیمان</t>
+  </si>
+  <si>
+    <t>ہَنجِل سِمان</t>
+  </si>
+  <si>
+    <t>ژِرَخ سِمان</t>
+  </si>
+  <si>
+    <t>ہُنچِہ بَلِچُم یَٹِہ پھُکَن ݜِر باردُم منِکا تیِغَہ</t>
+  </si>
+  <si>
+    <t>پُتُنِݜ سِمان</t>
+  </si>
+  <si>
+    <t>ہُنچِہ نُپَل پھُہ نِمَہ ݜِر باردُم پھُکَن دِواسِہ کَہ سِغَہ</t>
+  </si>
+  <si>
+    <t>ہَس سیمان</t>
+  </si>
+  <si>
+    <t>چھَر یَٹُم دَن نُوَر دِیَکَہ سِغَہ بو سِمان؟</t>
+  </si>
+  <si>
+    <t>ژنٚ عَہ</t>
+  </si>
+  <si>
+    <t>شُول</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +493,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +509,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,16 +528,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,6 +1273,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dataset/Book1.xlsx
+++ b/dataset/Book1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="690">
   <si>
     <t>prompt</t>
   </si>
@@ -882,13 +883,1225 @@
   </si>
   <si>
     <t>جا ایا بو چِہ نُکٹ گوغا ڵین اِتہ</t>
+  </si>
+  <si>
+    <t>Nastaliq</t>
+  </si>
+  <si>
+    <t>Romanization</t>
+  </si>
+  <si>
+    <t>Unicode</t>
+  </si>
+  <si>
+    <t>Unicode_Hex</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example_word_Nastaliq </t>
+  </si>
+  <si>
+    <t>Example_word_Roman</t>
+  </si>
+  <si>
+    <t>word_IPA</t>
+  </si>
+  <si>
+    <t>Semantic_Domain</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Gloss (EN)</t>
+  </si>
+  <si>
+    <t>Gloss (UR)</t>
+  </si>
+  <si>
+    <t>ا</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>U+ ‎0627</t>
+  </si>
+  <si>
+    <t>0627</t>
+  </si>
+  <si>
+    <t>/a/</t>
+  </si>
+  <si>
+    <t>اسقور</t>
+  </si>
+  <si>
+    <t>asqor</t>
+  </si>
+  <si>
+    <t>[as.qɔr]</t>
+  </si>
+  <si>
+    <t>nature-&gt;plant</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>پھول</t>
+  </si>
+  <si>
+    <t>اࣷ</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>U+00E1</t>
+  </si>
+  <si>
+    <t>00E1</t>
+  </si>
+  <si>
+    <t>/ɑː/</t>
+  </si>
+  <si>
+    <t>ناࣷنی</t>
+  </si>
+  <si>
+    <t>náni</t>
+  </si>
+  <si>
+    <t>[ˈnaː.ni]</t>
+  </si>
+  <si>
+    <t>animal-&gt;human</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>امی</t>
+  </si>
+  <si>
+    <t>آ</t>
+  </si>
+  <si>
+    <t>aa or ā</t>
+  </si>
+  <si>
+    <t>U+0101</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>/aː/</t>
+  </si>
+  <si>
+    <t>آغئینی</t>
+  </si>
+  <si>
+    <t>aaġáyini / āġáyini</t>
+  </si>
+  <si>
+    <t>[aːˈʁaː.ji.ni]</t>
+  </si>
+  <si>
+    <t>Perception → Appearance</t>
+  </si>
+  <si>
+    <t>Verb (intransitive, perception/state)</t>
+  </si>
+  <si>
+    <t>seemed</t>
+  </si>
+  <si>
+    <t>جیسا لگ</t>
+  </si>
+  <si>
+    <t>ب</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>U+ ‎0628</t>
+  </si>
+  <si>
+    <t>0628</t>
+  </si>
+  <si>
+    <t>/b/</t>
+  </si>
+  <si>
+    <t>بُش</t>
+  </si>
+  <si>
+    <t>buś</t>
+  </si>
+  <si>
+    <t>[buʃ]</t>
+  </si>
+  <si>
+    <t>Animals → Mammals → Domestic animals → Pets (Cat)</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>بلی</t>
+  </si>
+  <si>
+    <t>پ</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>U+ ‎067E</t>
+  </si>
+  <si>
+    <t>067E</t>
+  </si>
+  <si>
+    <t>/p/</t>
+  </si>
+  <si>
+    <t>Phopos</t>
+  </si>
+  <si>
+    <t>[pʰoː.pʰoːs]</t>
+  </si>
+  <si>
+    <t>Objects → Household items → Cleaning tools → Broom</t>
+  </si>
+  <si>
+    <t>broomstick</t>
+  </si>
+  <si>
+    <t>جاڑو</t>
+  </si>
+  <si>
+    <t>ت</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>U+ ‎062A</t>
+  </si>
+  <si>
+    <t>‎062A</t>
+  </si>
+  <si>
+    <t>/t̪/</t>
+  </si>
+  <si>
+    <t>تلٚ</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>[t̪alː]</t>
+  </si>
+  <si>
+    <t>Animals → Birds → Domestic / Common birds → Pigeon</t>
+  </si>
+  <si>
+    <t>pigeon</t>
+  </si>
+  <si>
+    <t>کبوتر</t>
+  </si>
+  <si>
+    <t>ٹ</t>
+  </si>
+  <si>
+    <t>ṭ</t>
+  </si>
+  <si>
+    <t>U+ ‎0679</t>
+  </si>
+  <si>
+    <t>‎0679</t>
+  </si>
+  <si>
+    <t>/ʈ/</t>
+  </si>
+  <si>
+    <t>ٹوری</t>
+  </si>
+  <si>
+    <t>ṭoori</t>
+  </si>
+  <si>
+    <t>[ʈoː.ri]</t>
+  </si>
+  <si>
+    <t>Objects → Household items → Containers → Stopper</t>
+  </si>
+  <si>
+    <t>cork stopper</t>
+  </si>
+  <si>
+    <t>ڈھکنا</t>
+  </si>
+  <si>
+    <t>ج</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>U+ ‎062C</t>
+  </si>
+  <si>
+    <t>‎062C</t>
+  </si>
+  <si>
+    <t>/d͡ʒ/</t>
+  </si>
+  <si>
+    <t>جالو</t>
+  </si>
+  <si>
+    <t>jaallo</t>
+  </si>
+  <si>
+    <t>[ˈd͡ʒaːl.lo]</t>
+  </si>
+  <si>
+    <t>Nature → Plants → Bushes / Shrubs → Thorny vegetation</t>
+  </si>
+  <si>
+    <t>bundle of thorny bushes</t>
+  </si>
+  <si>
+    <t>کانٹوں بھری جھاڑیوں کا گٹھا</t>
+  </si>
+  <si>
+    <t>چ</t>
+  </si>
+  <si>
+    <t>ć</t>
+  </si>
+  <si>
+    <t>U+ ‎0107</t>
+  </si>
+  <si>
+    <t>‎0107</t>
+  </si>
+  <si>
+    <t>[t͡ɕ]</t>
+  </si>
+  <si>
+    <t>چقر</t>
+  </si>
+  <si>
+    <t>ćaqar</t>
+  </si>
+  <si>
+    <t>[t͡ɕa.qɑr]</t>
+  </si>
+  <si>
+    <t>Objects → Tools / Implements → Agricultural tools → Pitchfork</t>
+  </si>
+  <si>
+    <t>pitchfork</t>
+  </si>
+  <si>
+    <t>کانٹا</t>
+  </si>
+  <si>
+    <t>څ</t>
+  </si>
+  <si>
+    <t>c̣</t>
+  </si>
+  <si>
+    <t>U+ ‎0063</t>
+  </si>
+  <si>
+    <t>‎0063</t>
+  </si>
+  <si>
+    <t>[ʦ]</t>
+  </si>
+  <si>
+    <t>څُخ</t>
+  </si>
+  <si>
+    <t>c̣ux</t>
+  </si>
+  <si>
+    <t>[tsʊx]</t>
+  </si>
+  <si>
+    <t>Properties → Shape / Quality → Pointedness / Sharpness</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>pointy</t>
+  </si>
+  <si>
+    <t>نوکدار</t>
+  </si>
+  <si>
+    <t>خ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>U+ ‎0058</t>
+  </si>
+  <si>
+    <t>‎0058</t>
+  </si>
+  <si>
+    <t>[x]</t>
+  </si>
+  <si>
+    <t>خوࣷروࣷنٚ</t>
+  </si>
+  <si>
+    <t>xoroṅ</t>
+  </si>
+  <si>
+    <t>[xoː.roːŋ]</t>
+  </si>
+  <si>
+    <t>Nature → Weather</t>
+  </si>
+  <si>
+    <t>black cloud</t>
+  </si>
+  <si>
+    <t>کالے بادل</t>
+  </si>
+  <si>
+    <t>د</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>U+ ‎062F</t>
+  </si>
+  <si>
+    <t>‎062F</t>
+  </si>
+  <si>
+    <t>/d̪/</t>
+  </si>
+  <si>
+    <t>دسیࣷن</t>
+  </si>
+  <si>
+    <t>dasen</t>
+  </si>
+  <si>
+    <t>[dɑ.sen]</t>
+  </si>
+  <si>
+    <t>Human → Gender &amp; Age → Female → Girl</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>لڑکی</t>
+  </si>
+  <si>
+    <t>ڈ</t>
+  </si>
+  <si>
+    <t>ḍ</t>
+  </si>
+  <si>
+    <t>U+ ‎0688</t>
+  </si>
+  <si>
+    <t>‎0688</t>
+  </si>
+  <si>
+    <t>/ɖ/</t>
+  </si>
+  <si>
+    <t>ڈَڈنٚ</t>
+  </si>
+  <si>
+    <t>ḍaḍaṅ</t>
+  </si>
+  <si>
+    <t>[ɖa.ɖəŋ]</t>
+  </si>
+  <si>
+    <t>Material Culture → Musical Instruments → Drum</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>ڈھول</t>
+  </si>
+  <si>
+    <t>ڎ</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>U+ ‎0043</t>
+  </si>
+  <si>
+    <t>‎0043</t>
+  </si>
+  <si>
+    <t>/ts/</t>
+  </si>
+  <si>
+    <t>ڎَپیࣷ</t>
+  </si>
+  <si>
+    <t>capí</t>
+  </si>
+  <si>
+    <t>[t͡ʃaˈpiː]</t>
+  </si>
+  <si>
+    <t>Objects → Tools / Implements → household</t>
+  </si>
+  <si>
+    <t>Tongs</t>
+  </si>
+  <si>
+    <t>چمٹا</t>
+  </si>
+  <si>
+    <t>ر</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>U+ ‎0631</t>
+  </si>
+  <si>
+    <t>‎0631</t>
+  </si>
+  <si>
+    <t>/r/</t>
+  </si>
+  <si>
+    <t>ہَر</t>
+  </si>
+  <si>
+    <t>hár</t>
+  </si>
+  <si>
+    <t>[hɑ́r]</t>
+  </si>
+  <si>
+    <t>Animals → Mammals → Domestic animals (Livestock / Working animals)</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>بیل</t>
+  </si>
+  <si>
+    <t>رْ</t>
+  </si>
+  <si>
+    <t>rʰ</t>
+  </si>
+  <si>
+    <t>/ɾ̊/</t>
+  </si>
+  <si>
+    <t>درْھُغو</t>
+  </si>
+  <si>
+    <t>darʰoġo</t>
+  </si>
+  <si>
+    <t>[darʰoɣo]</t>
+  </si>
+  <si>
+    <t>Tools / Objects → Traditional Implements / Everyday Objects</t>
+  </si>
+  <si>
+    <t>walking stick</t>
+  </si>
+  <si>
+    <t>لاٹھی</t>
+  </si>
+  <si>
+    <t>ڑ</t>
+  </si>
+  <si>
+    <t>ڑٹ</t>
+  </si>
+  <si>
+    <t>گڑھا</t>
+  </si>
+  <si>
+    <t>ز</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>U+ ‎0632</t>
+  </si>
+  <si>
+    <t>‎0632</t>
+  </si>
+  <si>
+    <t>/z/</t>
+  </si>
+  <si>
+    <t>زوئی</t>
+  </si>
+  <si>
+    <t>zoi</t>
+  </si>
+  <si>
+    <t>ژو</t>
+  </si>
+  <si>
+    <t>ژ</t>
+  </si>
+  <si>
+    <t>ẓ</t>
+  </si>
+  <si>
+    <t>ژکُن</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>گدھا</t>
+  </si>
+  <si>
+    <t>س</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>U+ ‎0633</t>
+  </si>
+  <si>
+    <t>‎0633</t>
+  </si>
+  <si>
+    <t>/s/</t>
+  </si>
+  <si>
+    <t>whole-day</t>
+  </si>
+  <si>
+    <t>سارا دن</t>
+  </si>
+  <si>
+    <t>ش</t>
+  </si>
+  <si>
+    <t>شےࣷ</t>
+  </si>
+  <si>
+    <t>śae</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>اون</t>
+  </si>
+  <si>
+    <t>ݜ</t>
+  </si>
+  <si>
+    <t>ṣ</t>
+  </si>
+  <si>
+    <t>U+ ‎075C</t>
+  </si>
+  <si>
+    <t>‎075C</t>
+  </si>
+  <si>
+    <t>/ʂ/</t>
+  </si>
+  <si>
+    <t>ݜَر</t>
+  </si>
+  <si>
+    <t>ṣār</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>شاخ</t>
+  </si>
+  <si>
+    <t>غ</t>
+  </si>
+  <si>
+    <t>ġ</t>
+  </si>
+  <si>
+    <t>U+ ‎0121</t>
+  </si>
+  <si>
+    <t>‎0121</t>
+  </si>
+  <si>
+    <t>/ɣ/</t>
+  </si>
+  <si>
+    <t>غئیِنٚ</t>
+  </si>
+  <si>
+    <t>ġayeiń</t>
+  </si>
+  <si>
+    <t>graps</t>
+  </si>
+  <si>
+    <t>انگور</t>
+  </si>
+  <si>
+    <t>ف</t>
+  </si>
+  <si>
+    <t>pʰ</t>
+  </si>
+  <si>
+    <t>U+0641</t>
+  </si>
+  <si>
+    <t>/pʰ/</t>
+  </si>
+  <si>
+    <t>دُپھلٚتِی</t>
+  </si>
+  <si>
+    <t>dupʰlti</t>
+  </si>
+  <si>
+    <t>ق</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>U+ ‎0642</t>
+  </si>
+  <si>
+    <t>/q/</t>
+  </si>
+  <si>
+    <t>قرقَمُش</t>
+  </si>
+  <si>
+    <t>qarqamosh</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>مُرغی</t>
+  </si>
+  <si>
+    <t>ک</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>U+ ‎06A9</t>
+  </si>
+  <si>
+    <t>06A9</t>
+  </si>
+  <si>
+    <t>/k/</t>
+  </si>
+  <si>
+    <t>کُکُریࣷس</t>
+  </si>
+  <si>
+    <t>kukures</t>
+  </si>
+  <si>
+    <t>puppy</t>
+  </si>
+  <si>
+    <t>کتے کا بچہ</t>
+  </si>
+  <si>
+    <t>گ</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>U+ ‎06AF</t>
+  </si>
+  <si>
+    <t>06AF</t>
+  </si>
+  <si>
+    <t>/ɡ/</t>
+  </si>
+  <si>
+    <t>گِرِیࣷ</t>
+  </si>
+  <si>
+    <t>gheri</t>
+  </si>
+  <si>
+    <t>markhor</t>
+  </si>
+  <si>
+    <t>مارخور</t>
+  </si>
+  <si>
+    <t>ل</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>U+ ‎0644</t>
+  </si>
+  <si>
+    <t>/l/</t>
+  </si>
+  <si>
+    <t>لجیࣷکࣷ</t>
+  </si>
+  <si>
+    <t>lajek</t>
+  </si>
+  <si>
+    <t>local food name</t>
+  </si>
+  <si>
+    <t>گلگت بلتستان کی مقامی کھانا</t>
+  </si>
+  <si>
+    <t>لٚ</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>‎0644</t>
+  </si>
+  <si>
+    <t>/lː/</t>
+  </si>
+  <si>
+    <t>لٚمن</t>
+  </si>
+  <si>
+    <t>llaman</t>
+  </si>
+  <si>
+    <t>loweer part of the kameez</t>
+  </si>
+  <si>
+    <t>دامن</t>
+  </si>
+  <si>
+    <t>لْ</t>
+  </si>
+  <si>
+    <t>l̥</t>
+  </si>
+  <si>
+    <t>/l̥/</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>U+ ‎0645</t>
+  </si>
+  <si>
+    <t>‎0645</t>
+  </si>
+  <si>
+    <t>/m/</t>
+  </si>
+  <si>
+    <t>ممُوࣷ</t>
+  </si>
+  <si>
+    <t>mamu</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>دودھ</t>
+  </si>
+  <si>
+    <t>ن</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>U+ ‎0646</t>
+  </si>
+  <si>
+    <t>‎0646</t>
+  </si>
+  <si>
+    <t>/n/</t>
+  </si>
+  <si>
+    <t>نَروࣷ</t>
+  </si>
+  <si>
+    <t>naru</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>محور</t>
+  </si>
+  <si>
+    <t>نٚ</t>
+  </si>
+  <si>
+    <t>ń</t>
+  </si>
+  <si>
+    <t>/ɲ/</t>
+  </si>
+  <si>
+    <t>ہِنٚ</t>
+  </si>
+  <si>
+    <t>heń</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>دروازہ</t>
+  </si>
+  <si>
+    <t>و</t>
+  </si>
+  <si>
+    <t>w / u</t>
+  </si>
+  <si>
+    <t>U+ ‎0648</t>
+  </si>
+  <si>
+    <t>‎0648</t>
+  </si>
+  <si>
+    <t>/w/ ~ /u/</t>
+  </si>
+  <si>
+    <t>وَٹ</t>
+  </si>
+  <si>
+    <t>wat/uat</t>
+  </si>
+  <si>
+    <t>bark of trees</t>
+  </si>
+  <si>
+    <t>چھال</t>
+  </si>
+  <si>
+    <t>وࣷ</t>
+  </si>
+  <si>
+    <t>o / oo</t>
+  </si>
+  <si>
+    <t>/o/ ~ /oː/</t>
+  </si>
+  <si>
+    <t>ؤ</t>
+  </si>
+  <si>
+    <t>o / u̯</t>
+  </si>
+  <si>
+    <t>/o̯/</t>
+  </si>
+  <si>
+    <t>ہ</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>U+ ‎06C1</t>
+  </si>
+  <si>
+    <t>‎06C1</t>
+  </si>
+  <si>
+    <t>/h/</t>
+  </si>
+  <si>
+    <t>ہغوࣷر</t>
+  </si>
+  <si>
+    <t>haġor</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>گھوڑا</t>
+  </si>
+  <si>
+    <t>ی</t>
+  </si>
+  <si>
+    <t>y / i</t>
+  </si>
+  <si>
+    <t>U+ ‎06CC</t>
+  </si>
+  <si>
+    <t>‎06CC</t>
+  </si>
+  <si>
+    <t>/j/ ~ /i/</t>
+  </si>
+  <si>
+    <t>یٹھل</t>
+  </si>
+  <si>
+    <t>yatal/iathal</t>
+  </si>
+  <si>
+    <t>fat-tailed sheep</t>
+  </si>
+  <si>
+    <t>منڈھا</t>
+  </si>
+  <si>
+    <t>یࣷ</t>
+  </si>
+  <si>
+    <t>ii / ī</t>
+  </si>
+  <si>
+    <t>06CC</t>
+  </si>
+  <si>
+    <t>/iː/</t>
+  </si>
+  <si>
+    <t>لایٚ</t>
+  </si>
+  <si>
+    <t>laii/laī</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>کھیرہ</t>
+  </si>
+  <si>
+    <t>U+ ‎08F7</t>
+  </si>
+  <si>
+    <t>‎08F7</t>
+  </si>
+  <si>
+    <t>یٚ</t>
+  </si>
+  <si>
+    <t>ẏ</t>
+  </si>
+  <si>
+    <t>/ʝ/ or /j̝/</t>
+  </si>
+  <si>
+    <t>U+ ‎065A</t>
+  </si>
+  <si>
+    <t>‎065A</t>
+  </si>
+  <si>
+    <t>ے</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>U+ ‎06D2</t>
+  </si>
+  <si>
+    <t>‎06D2</t>
+  </si>
+  <si>
+    <t>/e/</t>
+  </si>
+  <si>
+    <t>ےࣷ</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>/eː/</t>
+  </si>
+  <si>
+    <t>ےٚ</t>
+  </si>
+  <si>
+    <t>ė</t>
+  </si>
+  <si>
+    <t>/ə/</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>U+ 002E</t>
+  </si>
+  <si>
+    <t>002E</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>U+061F</t>
+  </si>
+  <si>
+    <t>061F</t>
+  </si>
+  <si>
+    <t>/ʔ/</t>
+  </si>
+  <si>
+    <t>U+ 1E0D</t>
+  </si>
+  <si>
+    <t>1E0D</t>
+  </si>
+  <si>
+    <t>[ɖ]</t>
+  </si>
+  <si>
+    <t>ḍat</t>
+  </si>
+  <si>
+    <t>objects / Landscape features / Ground irregularities</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>[darʰoːɡo]</t>
+  </si>
+  <si>
+    <t>cross-breed of cow and yak (zho)</t>
+  </si>
+  <si>
+    <t>livingthing-&gt;animal</t>
+  </si>
+  <si>
+    <t>ẓakun</t>
+  </si>
+  <si>
+    <t>U+ 1E93</t>
+  </si>
+  <si>
+    <t>,1E93</t>
+  </si>
+  <si>
+    <t>[ʐ]</t>
+  </si>
+  <si>
+    <t>[ˈd͡zɔe]</t>
+  </si>
+  <si>
+    <t>[ʐakun]</t>
+  </si>
+  <si>
+    <t>ساسپُر</t>
+  </si>
+  <si>
+    <t>sasápur</t>
+  </si>
+  <si>
+    <t>[sɑːˈsapuɾ]</t>
+  </si>
+  <si>
+    <t>Noun / Adverbial Noun</t>
+  </si>
+  <si>
+    <t>Time &amp; Temporal Concepts → Duration / Day Cycle</t>
+  </si>
+  <si>
+    <t>ś</t>
+  </si>
+  <si>
+    <t>[ɕ]</t>
+  </si>
+  <si>
+    <t>U+015B</t>
+  </si>
+  <si>
+    <t>015B</t>
+  </si>
+  <si>
+    <t>[ɕae]</t>
+  </si>
+  <si>
+    <t>Textiles, Clothing Material, Natural Fibers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,8 +2133,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Scheherazade New"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Scheherazade New"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Scheherazade New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Nastaliq Urdu"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Nastaliq Urdu"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,8 +2199,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -970,11 +2265,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -996,6 +2306,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,12 +2645,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="4" customWidth="1"/>
@@ -1293,7 +2659,7 @@
     <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +2673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>257</v>
       </c>
@@ -1321,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
@@ -1363,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1377,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
@@ -1447,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>258</v>
       </c>
@@ -1461,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>259</v>
       </c>
@@ -1475,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1503,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>265</v>
       </c>
@@ -1517,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>270</v>
       </c>
@@ -1545,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>272</v>
       </c>
@@ -1559,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>273</v>
       </c>
@@ -1573,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>275</v>
       </c>
@@ -1601,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>281</v>
       </c>
@@ -1615,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>279</v>
       </c>
@@ -1629,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -1643,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1657,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
@@ -1671,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>282</v>
       </c>
@@ -1685,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -1699,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1713,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8">
       <c r="A31" s="3" t="s">
         <v>283</v>
       </c>
@@ -1727,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>284</v>
       </c>
@@ -1741,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1755,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>285</v>
       </c>
@@ -1783,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
@@ -1811,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -1825,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1839,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>102</v>
       </c>
@@ -1853,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
@@ -1867,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -1881,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
@@ -1895,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>163</v>
       </c>
@@ -1909,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -1923,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.6">
       <c r="A46" s="5" t="s">
         <v>105</v>
       </c>
@@ -1937,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
@@ -1951,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
@@ -1965,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
@@ -1979,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -1993,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>106</v>
       </c>
@@ -2007,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>109</v>
       </c>
@@ -2021,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -2035,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>115</v>
       </c>
@@ -2049,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
@@ -2063,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>121</v>
       </c>
@@ -2077,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>124</v>
       </c>
@@ -2091,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>127</v>
       </c>
@@ -2105,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2119,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2133,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
@@ -2147,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
@@ -2161,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>141</v>
       </c>
@@ -2175,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2189,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
@@ -2203,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -2217,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>152</v>
       </c>
@@ -2231,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>155</v>
       </c>
@@ -2245,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>158</v>
       </c>
@@ -2259,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>166</v>
       </c>
@@ -2273,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>169</v>
       </c>
@@ -2287,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>172</v>
       </c>
@@ -2301,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>175</v>
       </c>
@@ -2315,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>176</v>
       </c>
@@ -2329,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>179</v>
       </c>
@@ -2343,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>181</v>
       </c>
@@ -2357,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>183</v>
       </c>
@@ -2371,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>186</v>
       </c>
@@ -2385,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>187</v>
       </c>
@@ -2399,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>190</v>
       </c>
@@ -2413,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>193</v>
       </c>
@@ -2427,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>196</v>
       </c>
@@ -2441,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>199</v>
       </c>
@@ -2455,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>200</v>
       </c>
@@ -2469,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>203</v>
       </c>
@@ -2483,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>206</v>
       </c>
@@ -2497,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>209</v>
       </c>
@@ -2511,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>212</v>
       </c>
@@ -2525,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>215</v>
       </c>
@@ -2539,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>218</v>
       </c>
@@ -2553,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="7" t="s">
         <v>219</v>
       </c>
@@ -2567,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>222</v>
       </c>
@@ -2581,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>225</v>
       </c>
@@ -2595,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>228</v>
       </c>
@@ -2609,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>231</v>
       </c>
@@ -2623,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>234</v>
       </c>
@@ -2637,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>237</v>
       </c>
@@ -2651,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>240</v>
       </c>
@@ -2665,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>243</v>
       </c>
@@ -2679,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>246</v>
       </c>
@@ -2693,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>249</v>
       </c>
@@ -2711,4 +4077,1613 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.6">
+      <c r="A1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6">
+      <c r="A2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6">
+      <c r="A3" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6">
+      <c r="A4" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.6">
+      <c r="A5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6">
+      <c r="A6" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6">
+      <c r="A7" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6">
+      <c r="A8" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.6">
+      <c r="A9" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6">
+      <c r="A10" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6">
+      <c r="A11" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6">
+      <c r="A12" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6">
+      <c r="A13" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6">
+      <c r="A14" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.6">
+      <c r="A15" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6">
+      <c r="A16" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6">
+      <c r="A17" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="26" customFormat="1" ht="15.6">
+      <c r="A18" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6">
+      <c r="A19" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="26" customFormat="1" ht="15.6">
+      <c r="A20" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.6">
+      <c r="A21" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="26" customFormat="1" ht="15.6">
+      <c r="A22" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>684</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="22" customFormat="1" ht="15.6">
+      <c r="A23" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.6">
+      <c r="A24" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.6">
+      <c r="A25" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25" s="12">
+        <v>641</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6">
+      <c r="A26" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="12">
+        <v>642</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.6">
+      <c r="A27" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.6">
+      <c r="A28" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.6">
+      <c r="A29" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="12">
+        <v>644</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.6">
+      <c r="A30" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6">
+      <c r="A31" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6">
+      <c r="A32" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.6">
+      <c r="A33" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.6">
+      <c r="A34" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.6">
+      <c r="A35" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.6">
+      <c r="A36" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6">
+      <c r="A37" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6">
+      <c r="A38" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.6">
+      <c r="A39" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.6">
+      <c r="A40" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.6">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.6">
+      <c r="A42" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.6">
+      <c r="A44" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.6">
+      <c r="A45" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.6">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6">
+      <c r="A47" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.6">
+      <c r="A48" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.6">
+      <c r="A49" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset/Book1.xlsx
+++ b/dataset/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="716">
   <si>
     <t>prompt</t>
   </si>
@@ -1539,24 +1539,12 @@
     <t>ṣ</t>
   </si>
   <si>
-    <t>U+ ‎075C</t>
-  </si>
-  <si>
-    <t>‎075C</t>
-  </si>
-  <si>
-    <t>/ʂ/</t>
-  </si>
-  <si>
     <t>ݜَر</t>
   </si>
   <si>
     <t>ṣār</t>
   </si>
   <si>
-    <t>branch</t>
-  </si>
-  <si>
     <t>شاخ</t>
   </si>
   <si>
@@ -1578,33 +1566,12 @@
     <t>غئیِنٚ</t>
   </si>
   <si>
-    <t>ġayeiń</t>
-  </si>
-  <si>
     <t>graps</t>
   </si>
   <si>
     <t>انگور</t>
   </si>
   <si>
-    <t>ف</t>
-  </si>
-  <si>
-    <t>pʰ</t>
-  </si>
-  <si>
-    <t>U+0641</t>
-  </si>
-  <si>
-    <t>/pʰ/</t>
-  </si>
-  <si>
-    <t>دُپھلٚتِی</t>
-  </si>
-  <si>
-    <t>dupʰlti</t>
-  </si>
-  <si>
     <t>ق</t>
   </si>
   <si>
@@ -1617,12 +1584,6 @@
     <t>/q/</t>
   </si>
   <si>
-    <t>قرقَمُش</t>
-  </si>
-  <si>
-    <t>qarqamosh</t>
-  </si>
-  <si>
     <t>hen</t>
   </si>
   <si>
@@ -1674,9 +1635,6 @@
     <t>گِرِیࣷ</t>
   </si>
   <si>
-    <t>gheri</t>
-  </si>
-  <si>
     <t>markhor</t>
   </si>
   <si>
@@ -1701,12 +1659,6 @@
     <t>lajek</t>
   </si>
   <si>
-    <t>local food name</t>
-  </si>
-  <si>
-    <t>گلگت بلتستان کی مقامی کھانا</t>
-  </si>
-  <si>
     <t>لٚ</t>
   </si>
   <si>
@@ -1731,15 +1683,6 @@
     <t>دامن</t>
   </si>
   <si>
-    <t>لْ</t>
-  </si>
-  <si>
-    <t>l̥</t>
-  </si>
-  <si>
-    <t>/l̥/</t>
-  </si>
-  <si>
     <t>م</t>
   </si>
   <si>
@@ -1785,9 +1728,6 @@
     <t>نَروࣷ</t>
   </si>
   <si>
-    <t>naru</t>
-  </si>
-  <si>
     <t>shaft</t>
   </si>
   <si>
@@ -1797,18 +1737,9 @@
     <t>نٚ</t>
   </si>
   <si>
-    <t>ń</t>
-  </si>
-  <si>
-    <t>/ɲ/</t>
-  </si>
-  <si>
     <t>ہِنٚ</t>
   </si>
   <si>
-    <t>heń</t>
-  </si>
-  <si>
     <t>door</t>
   </si>
   <si>
@@ -1818,24 +1749,9 @@
     <t>و</t>
   </si>
   <si>
-    <t>w / u</t>
-  </si>
-  <si>
-    <t>U+ ‎0648</t>
-  </si>
-  <si>
-    <t>‎0648</t>
-  </si>
-  <si>
-    <t>/w/ ~ /u/</t>
-  </si>
-  <si>
     <t>وَٹ</t>
   </si>
   <si>
-    <t>wat/uat</t>
-  </si>
-  <si>
     <t>bark of trees</t>
   </si>
   <si>
@@ -1845,21 +1761,6 @@
     <t>وࣷ</t>
   </si>
   <si>
-    <t>o / oo</t>
-  </si>
-  <si>
-    <t>/o/ ~ /oː/</t>
-  </si>
-  <si>
-    <t>ؤ</t>
-  </si>
-  <si>
-    <t>o / u̯</t>
-  </si>
-  <si>
-    <t>/o̯/</t>
-  </si>
-  <si>
     <t>ہ</t>
   </si>
   <si>
@@ -1872,9 +1773,6 @@
     <t>‎06C1</t>
   </si>
   <si>
-    <t>/h/</t>
-  </si>
-  <si>
     <t>ہغوࣷر</t>
   </si>
   <si>
@@ -1890,75 +1788,18 @@
     <t>ی</t>
   </si>
   <si>
-    <t>y / i</t>
-  </si>
-  <si>
-    <t>U+ ‎06CC</t>
-  </si>
-  <si>
-    <t>‎06CC</t>
-  </si>
-  <si>
-    <t>/j/ ~ /i/</t>
-  </si>
-  <si>
     <t>یٹھل</t>
   </si>
   <si>
-    <t>yatal/iathal</t>
-  </si>
-  <si>
-    <t>fat-tailed sheep</t>
-  </si>
-  <si>
-    <t>منڈھا</t>
-  </si>
-  <si>
     <t>یࣷ</t>
   </si>
   <si>
-    <t>ii / ī</t>
-  </si>
-  <si>
-    <t>06CC</t>
-  </si>
-  <si>
-    <t>/iː/</t>
-  </si>
-  <si>
-    <t>لایٚ</t>
-  </si>
-  <si>
-    <t>laii/laī</t>
-  </si>
-  <si>
     <t>cucumber</t>
   </si>
   <si>
     <t>کھیرہ</t>
   </si>
   <si>
-    <t>U+ ‎08F7</t>
-  </si>
-  <si>
-    <t>‎08F7</t>
-  </si>
-  <si>
-    <t>یٚ</t>
-  </si>
-  <si>
-    <t>ẏ</t>
-  </si>
-  <si>
-    <t>/ʝ/ or /j̝/</t>
-  </si>
-  <si>
-    <t>U+ ‎065A</t>
-  </si>
-  <si>
-    <t>‎065A</t>
-  </si>
-  <si>
     <t>ے</t>
   </si>
   <si>
@@ -2095,13 +1936,250 @@
   </si>
   <si>
     <t>Textiles, Clothing Material, Natural Fibers</t>
+  </si>
+  <si>
+    <t>U+1E63</t>
+  </si>
+  <si>
+    <t>,1E63</t>
+  </si>
+  <si>
+    <t>[ṣ]</t>
+  </si>
+  <si>
+    <t>[sˤaːr]</t>
+  </si>
+  <si>
+    <t>Nature → Plants/Trees</t>
+  </si>
+  <si>
+    <t>tree branch</t>
+  </si>
+  <si>
+    <t>Food &amp; Agriculture → Fruits</t>
+  </si>
+  <si>
+    <t>ġayiṅ</t>
+  </si>
+  <si>
+    <t>[/ɣə.jĩ̯]</t>
+  </si>
+  <si>
+    <t>قرْقمُش</t>
+  </si>
+  <si>
+    <t>qarʰqamuś</t>
+  </si>
+  <si>
+    <t>[qɑrʰ.qɑ.muɕ]</t>
+  </si>
+  <si>
+    <t>Animals → Birds → Domestic Fowl</t>
+  </si>
+  <si>
+    <t>[ku.ku.ɾes]</t>
+  </si>
+  <si>
+    <t>Animals → Mammals → Domestic Animals → Dogs</t>
+  </si>
+  <si>
+    <t>[gi.ɾi]</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>Animals → Mammals → Wild Animals → Caprinae (Wild Goat)</t>
+  </si>
+  <si>
+    <t>[lad͡ʒek]</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink → Traditional Cuisine</t>
+  </si>
+  <si>
+    <t>local food name (traditional dish)</t>
+  </si>
+  <si>
+    <t>گلگت بلتستان کیمقامی کھانے کا نام</t>
+  </si>
+  <si>
+    <t>[lːaman]</t>
+  </si>
+  <si>
+    <t>Clothing &amp; Dress → Traditional Wear</t>
+  </si>
+  <si>
+    <t>[mamu]</t>
+  </si>
+  <si>
+    <t>Food &amp; Drink → Dairy Products</t>
+  </si>
+  <si>
+    <t>náro</t>
+  </si>
+  <si>
+    <t>[naːro]</t>
+  </si>
+  <si>
+    <t>Tools &amp; Objects → Mechanical Parts / Traditional Tools</t>
+  </si>
+  <si>
+    <t>ṅ</t>
+  </si>
+  <si>
+    <t>heṅ</t>
+  </si>
+  <si>
+    <t>U+ 1E45</t>
+  </si>
+  <si>
+    <t>[ŋ]</t>
+  </si>
+  <si>
+    <t>,1E45</t>
+  </si>
+  <si>
+    <t>[heŋ]</t>
+  </si>
+  <si>
+    <t>Household / Architecture → Building parts (entrances &amp; exits)</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>[w]</t>
+  </si>
+  <si>
+    <t>,0077</t>
+  </si>
+  <si>
+    <t>U+ 0077</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>[wət]</t>
+  </si>
+  <si>
+    <t>Nature → Plants → Trees → Tree parts</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>,00F3</t>
+  </si>
+  <si>
+    <t>U+ 00F3</t>
+  </si>
+  <si>
+    <t>[ó]</t>
+  </si>
+  <si>
+    <t>[h]</t>
+  </si>
+  <si>
+    <t>[haɣor]</t>
+  </si>
+  <si>
+    <t>Animals → Domestic animals / Livestock</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>U+ 0069</t>
+  </si>
+  <si>
+    <t>,0069</t>
+  </si>
+  <si>
+    <t>[i]</t>
+  </si>
+  <si>
+    <t>yaṭhall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ewe of pamir argali) male is Kaaro</t>
+  </si>
+  <si>
+    <t>ایشائی  جنگلی  بھیڑ جس کا تعلق ارگلی  ذات سے ہے</t>
+  </si>
+  <si>
+    <t>[jaʈʰal]</t>
+  </si>
+  <si>
+    <t>Animals → Wild Animals (Mountain fauna)</t>
+  </si>
+  <si>
+    <t>U+ ‎0065</t>
+  </si>
+  <si>
+    <t>,0065</t>
+  </si>
+  <si>
+    <t>[e]</t>
+  </si>
+  <si>
+    <t>لایࣷ</t>
+  </si>
+  <si>
+    <t>llae</t>
+  </si>
+  <si>
+    <t>[lːae]</t>
+  </si>
+  <si>
+    <t>Plants→Vegetables</t>
+  </si>
+  <si>
+    <t>guyek bó?</t>
+  </si>
+  <si>
+    <t>گُیࣷک بوࣷ؟</t>
+  </si>
+  <si>
+    <t>/ɡujek bó?/</t>
+  </si>
+  <si>
+    <t>Grammar / Function words</t>
+  </si>
+  <si>
+    <t>Copula verb</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>جاࣷ گڵہ شُوا۔</t>
+  </si>
+  <si>
+    <t>jágalla śua.</t>
+  </si>
+  <si>
+    <t>Conversation / Agreement</t>
+  </si>
+  <si>
+    <t>Verb (intransitive, 1st person singular)</t>
+  </si>
+  <si>
+    <t>Okay, I am going.</t>
+  </si>
+  <si>
+    <t>اچھا، میں جا رہا ہوں۔</t>
+  </si>
+  <si>
+    <t>اپ کا نام کیا ہے</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,13 +2212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2165,16 +2236,20 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Noto Nastaliq Urdu"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Noto Nastaliq Urdu"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2201,12 +2276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor rgb="FFDEEAF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -2219,18 +2288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -2239,6 +2296,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2284,7 +2365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2307,60 +2388,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4081,1609 +4172,1568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="58.88671875" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="31" customFormat="1" ht="15.6">
+      <c r="A1" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="14" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" ht="15.6">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A18" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6">
+      <c r="A19" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A20" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.6">
+      <c r="A21" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A22" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A23" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A24" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A25" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="17">
+        <v>642</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A26" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A27" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.6">
+      <c r="A28" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D28" s="10">
+        <v>644</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A29" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.6">
+      <c r="A30" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6">
+      <c r="A31" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="I31" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="J31" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="15.6">
+      <c r="A32" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="C32" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>670</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="J18" s="25" t="s">
+      <c r="H32" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.6">
-      <c r="A19" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="K32" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="23" customFormat="1" ht="15.6">
+      <c r="A33" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="C33" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="26" customFormat="1" ht="15.6">
-      <c r="A20" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="K33" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="28" customFormat="1" ht="15.6">
+      <c r="A34" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6">
+      <c r="A35" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.6">
-      <c r="A21" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1" ht="15.6">
-      <c r="A22" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="K35" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="C36" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="D36" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="E36" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="22" customFormat="1" ht="15.6">
-      <c r="A23" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.6">
-      <c r="A24" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.6">
-      <c r="A25" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="D25" s="12">
-        <v>641</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.6">
-      <c r="A26" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D26" s="12">
-        <v>642</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.6">
-      <c r="A27" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.6">
-      <c r="A28" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.6">
-      <c r="A29" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D29" s="12">
-        <v>644</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.6">
-      <c r="A30" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.6">
-      <c r="A31" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.6">
-      <c r="A32" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.6">
-      <c r="A33" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="K36" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1" ht="15.6">
+      <c r="A37" s="15" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.6">
-      <c r="A34" s="10" t="s">
+      <c r="B37" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="L37" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E34" s="12" t="s">
+    </row>
+    <row r="38" spans="1:12" s="28" customFormat="1" ht="15.6">
+      <c r="A38" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="B38" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="C38" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12" t="s">
+      <c r="D38" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="E38" s="27" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.6">
-      <c r="A35" s="10" t="s">
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" s="28" customFormat="1" ht="15.6">
+      <c r="A39" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B39" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C39" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" s="28" customFormat="1" ht="15.6">
+      <c r="A40" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="B40" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="C40" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.6">
+      <c r="A41" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12" t="s">
+      <c r="B41" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.6">
-      <c r="A36" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="F41" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.6">
+      <c r="A42" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.6">
-      <c r="A37" s="17" t="s">
+      <c r="C42" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="D42" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.6">
-      <c r="A38" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.6">
-      <c r="A39" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6">
-      <c r="A40" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.6">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.6">
-      <c r="A42" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.6">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.6">
-      <c r="A44" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.6">
-      <c r="A45" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.6">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.6">
-      <c r="A47" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.6">
-      <c r="A48" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.6">
-      <c r="A49" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="F42" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>715</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>